--- a/Daftar Komponen.xlsx
+++ b/Daftar Komponen.xlsx
@@ -36,9 +36,6 @@
     <t>IC ATMEGA328 SMD</t>
   </si>
   <si>
-    <t>IC 74HC595 SMD</t>
-  </si>
-  <si>
     <t xml:space="preserve">LED 5mm </t>
   </si>
   <si>
@@ -91,6 +88,9 @@
   </si>
   <si>
     <t>Cetak PCB</t>
+  </si>
+  <si>
+    <t>IC CD4094 SMD</t>
   </si>
 </sst>
 </file>
@@ -484,7 +484,7 @@
   <dimension ref="D39:F61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -543,7 +543,7 @@
         <v>4</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="F43" s="4">
         <v>17</v>
@@ -554,7 +554,7 @@
         <v>5</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F44" s="4">
         <v>1</v>
@@ -565,7 +565,7 @@
         <v>6</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F45" s="4">
         <v>6</v>
@@ -576,7 +576,7 @@
         <v>7</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F46" s="4">
         <v>1</v>
@@ -587,7 +587,7 @@
         <v>8</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F47" s="4">
         <v>1</v>
@@ -598,7 +598,7 @@
         <v>9</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F48" s="4">
         <v>1</v>
@@ -609,7 +609,7 @@
         <v>10</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F49" s="4">
         <v>1</v>
@@ -620,7 +620,7 @@
         <v>11</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F50" s="4">
         <v>128</v>
@@ -631,7 +631,7 @@
         <v>12</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F51" s="4">
         <v>2</v>
@@ -642,7 +642,7 @@
         <v>13</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F52" s="4">
         <v>3</v>
@@ -653,7 +653,7 @@
         <v>14</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F53" s="4">
         <v>2</v>
@@ -664,7 +664,7 @@
         <v>15</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F54" s="4">
         <v>2</v>
@@ -675,7 +675,7 @@
         <v>16</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F55" s="4">
         <v>4</v>
@@ -686,7 +686,7 @@
         <v>17</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F56" s="4">
         <v>3</v>
@@ -697,7 +697,7 @@
         <v>18</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F57" s="2">
         <v>1</v>
@@ -708,7 +708,7 @@
         <v>19</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F58" s="4">
         <v>1</v>
@@ -719,7 +719,7 @@
         <v>20</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F59" s="2">
         <v>1</v>
@@ -730,7 +730,7 @@
         <v>21</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F60" s="2">
         <v>1</v>
@@ -741,7 +741,7 @@
         <v>22</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F61" s="4">
         <v>1</v>
